--- a/persistance_des_données/mettre_en_place_une_base_de_donnees/exercice_stagiaires/stagiaireAfpa.xlsx
+++ b/persistance_des_données/mettre_en_place_une_base_de_donnees/exercice_stagiaires/stagiaireAfpa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="stagiaireafpa" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,13 +11,16 @@
     <sheet name="Hebergements" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Groupes" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Formations" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Matieres" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Constitutions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Animations" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>nomStagiaire</t>
   </si>
@@ -346,7 +349,19 @@
     <t>28-30-87-90</t>
   </si>
   <si>
+    <t>idFormateur</t>
+  </si>
+  <si>
     <t>idGroupe</t>
+  </si>
+  <si>
+    <t>idMatiere</t>
+  </si>
+  <si>
+    <t>idFormation</t>
+  </si>
+  <si>
+    <t>matieres</t>
   </si>
 </sst>
 </file>
@@ -662,7 +677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -878,6 +893,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -923,7 +956,7 @@
     <xf fontId="15" fillId="0" borderId="8" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0"/>
     <xf fontId="16" fillId="32" borderId="9" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="15" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="15" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -937,6 +970,10 @@
     <xf fontId="15" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
@@ -2392,16 +2429,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col bestFit="1" min="1" max="1" width="11.421875"/>
     <col bestFit="1" min="4" max="4" width="83.140625"/>
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="4"/>
     </row>
     <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
@@ -2414,6 +2458,9 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
@@ -2426,6 +2473,9 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
@@ -2438,6 +2488,9 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" s="8" t="s">
         <v>54</v>
       </c>
@@ -2572,13 +2625,13 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -2692,6 +2745,382 @@
     <row r="12" ht="14.25">
       <c r="A12" s="8" t="s">
         <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" min="3" max="3" width="49.421875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"INSERT INTO Matieres (nomMatiere) VALUES ("""&amp;B2&amp;""");"</f>
+        <v xml:space="preserve">INSERT INTO Matieres (nomMatiere) VALUES ("Sport");</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"INSERT INTO Matieres (nomMatiere) VALUES ("""&amp;B3&amp;""");"</f>
+        <v xml:space="preserve">INSERT INTO Matieres (nomMatiere) VALUES ("Français");</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"INSERT INTO Matieres (nomMatiere) VALUES ("""&amp;B4&amp;""");"</f>
+        <v xml:space="preserve">INSERT INTO Matieres (nomMatiere) VALUES ("Math");</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="9.8515625"/>
+    <col bestFit="1" min="4" max="4" width="11.28125"/>
+    <col bestFit="1" min="5" max="5" width="9.8515625"/>
+    <col bestFit="1" min="7" max="7" width="56.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <f>VLOOKUP(B10,$A$2:$B$4,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"INSERT INTO constitutions (idMatiere, idFormation) VALUES ("&amp;D2&amp;","&amp;F2&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO constitutions (idMatiere, idFormation) VALUES (1,1);</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <f>VLOOKUP(B11,$A$2:$B$4,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"INSERT INTO constitutions (idMatiere, idFormation) VALUES ("&amp;D3&amp;","&amp;F3&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO constitutions (idMatiere, idFormation) VALUES (2,3);</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="14">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP(B12,$A$2:$B$4,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f>"INSERT INTO constitutions (idMatiere, idFormation) VALUES ("&amp;D4&amp;","&amp;F4&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO constitutions (idMatiere, idFormation) VALUES (3,2);</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5">
+        <f>VLOOKUP(B13,$A$2:$B$4,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f>"INSERT INTO constitutions (idMatiere, idFormation) VALUES ("&amp;D5&amp;","&amp;F5&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO constitutions (idMatiere, idFormation) VALUES (4,2);</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP(B14,$A$2:$B$4,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="G6" t="str">
+        <f>"INSERT INTO constitutions (idMatiere, idFormation) VALUES ("&amp;D6&amp;","&amp;F6&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO constitutions (idMatiere, idFormation) VALUES (5,3);</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="11.421875"/>
+    <col bestFit="1" min="2" max="2" width="12.28125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/persistance_des_données/mettre_en_place_une_base_de_donnees/exercice_stagiaires/stagiaireAfpa.xlsx
+++ b/persistance_des_données/mettre_en_place_une_base_de_donnees/exercice_stagiaires/stagiaireAfpa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="stagiaireafpa" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="Matieres" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Constitutions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Animations" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Stagiaires" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Suivis" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>nomStagiaire</t>
   </si>
@@ -362,14 +364,66 @@
   </si>
   <si>
     <t>matieres</t>
+  </si>
+  <si>
+    <t>idHebergement</t>
+  </si>
+  <si>
+    <t>dateEntreeFormat</t>
+  </si>
+  <si>
+    <t>dateNaissanceFormat</t>
+  </si>
+  <si>
+    <t>idStagiaire</t>
+  </si>
+  <si>
+    <t>matiere</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>15.4</t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>14.9</t>
+  </si>
+  <si>
+    <t>15.9</t>
+  </si>
+  <si>
+    <t>17.8</t>
+  </si>
+  <si>
+    <t>11.8</t>
+  </si>
+  <si>
+    <t>13.8</t>
+  </si>
+  <si>
+    <t>18.5</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>13.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="160" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="161" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -677,7 +731,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -911,6 +965,129 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -956,7 +1133,7 @@
     <xf fontId="15" fillId="0" borderId="8" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0"/>
     <xf fontId="16" fillId="32" borderId="9" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="15" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="15" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -976,6 +1153,21 @@
     <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="15" numFmtId="161" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="15" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="15" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="22" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="15" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="14" numFmtId="161" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="24" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="22" numFmtId="0" xfId="0" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="25" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="26" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="27" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="1" builtinId="30"/>
@@ -2415,7 +2607,1103 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="12.28125"/>
+    <col bestFit="1" min="2" max="2" width="15.140625"/>
+    <col bestFit="1" min="3" max="3" width="20.7109375"/>
+    <col bestFit="1" min="4" max="4" width="10.140625"/>
+    <col bestFit="1" min="5" max="5" width="10.28125"/>
+    <col bestFit="1" min="6" max="7" width="10.421875"/>
+    <col bestFit="1" min="8" max="8" width="4.57421875"/>
+    <col bestFit="1" min="9" max="9" width="13.28125"/>
+    <col bestFit="1" min="10" max="11" width="9.8515625"/>
+    <col bestFit="1" min="12" max="12" width="12.421875"/>
+    <col min="13" max="14" width="12.421875"/>
+    <col bestFit="1" min="15" max="15" width="9.57421875"/>
+    <col bestFit="1" min="17" max="17" width="58.00390625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6">
+        <v>62100</v>
+      </c>
+      <c r="F2" s="6">
+        <v>21345678</v>
+      </c>
+      <c r="G2" s="22">
+        <v>41883</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="22">
+        <v>34713</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="12">
+        <v>1</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P9" si="18">VLOOKUP(N2,$S$2:$T$4,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="Q2" t="str">
+        <f t="shared" ref="Q2:Q9" si="19">"INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES ("&amp;P2&amp;","&amp;M2&amp;","&amp;O2&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES (3,1,15.4);</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8">
+        <v>62100</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="15">
+        <v>34436</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="12">
+        <v>2</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES (2,2,12.8);</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="8">
+        <v>62200</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="15">
+        <v>35501</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="12">
+        <v>3</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES (1,3,13);</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="8">
+        <v>62930</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="15">
+        <v>35145</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="12">
+        <v>4</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES (3,4,14);</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="8">
+        <v>62300</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="15">
+        <v>34005</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="12">
+        <v>5</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES (2,5,14.9);</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8">
+        <v>62100</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="15">
+        <v>41518</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="15">
+        <v>35085</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="12">
+        <v>6</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES (1,6,15.9);</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8">
+        <v>62200</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="15">
+        <v>34788</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="12">
+        <v>7</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8">
+        <v>16</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES (3,7,16);</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="8">
+        <v>59300</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="15">
+        <v>34475</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="12">
+        <v>8</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9">
+        <v>17</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES (1,8,17);</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="8">
+        <v>59870</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="15">
+        <v>41518</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="15">
+        <v>33981</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="12">
+        <v>9</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10:P19" si="20">VLOOKUP(N10,$S$2:$T$4,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" ref="Q10:Q19" si="21">"INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES ("&amp;P10&amp;","&amp;M10&amp;","&amp;O10&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES (2,9,17.8);</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="8">
+        <v>59100</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="15">
+        <v>35167</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="12">
+        <v>10</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11">
+        <v>18</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES (1,10,18);</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="8">
+        <v>62200</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="15">
+        <v>35263</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="12">
+        <v>11</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES (1,11,11.8);</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="8">
+        <v>62200</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="15">
+        <v>35536</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="12">
+        <v>12</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES (3,12,13.8);</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="8">
+        <v>62100</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="15">
+        <v>35142</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="12">
+        <v>13</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES (2,13,18.5);</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="8">
+        <v>62100</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="15">
+        <v>34720</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="12">
+        <v>14</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES (2,14,17.5);</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="8">
+        <v>62200</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="15">
+        <v>34473</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="12">
+        <v>15</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="s">
+        <v>129</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES (1,15,12.3);</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="8">
+        <v>62200</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="15">
+        <v>35371</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="12">
+        <v>16</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES (3,16,15.4);</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="8">
+        <v>62930</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="15">
+        <v>35381</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="12">
+        <v>17</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18">
+        <v>19</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES (1,17,19);</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="8">
+        <v>59100</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="15">
+        <v>35523</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="12">
+        <v>18</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">INSERT INTO suivis (idMatiere, idStagiaire, note) VALUES (2,18,13.5);</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2427,7 +3715,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="1" max="1" width="11.421875"/>
     <col bestFit="1" min="4" max="4" width="83.140625"/>
@@ -2453,7 +3741,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="str">
-        <f>"INSERT INTO Formateurs (nomFormateur, prenomFormateur) VALUES ("""&amp;B2&amp;""","""&amp;C2&amp;""");"</f>
+        <f t="shared" ref="D2:D5" si="0">"INSERT INTO Formateurs (nomFormateur, prenomFormateur) VALUES ("""&amp;B2&amp;""","""&amp;C2&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Formateurs (nomFormateur, prenomFormateur) VALUES ("Poix","Martine");</v>
       </c>
     </row>
@@ -2468,7 +3756,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="str">
-        <f>"INSERT INTO Formateurs (nomFormateur, prenomFormateur) VALUES ("""&amp;B3&amp;""","""&amp;C3&amp;""");"</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">INSERT INTO Formateurs (nomFormateur, prenomFormateur) VALUES ("Dubois","Thomas");</v>
       </c>
     </row>
@@ -2483,7 +3771,7 @@
         <v>46</v>
       </c>
       <c r="D4" t="str">
-        <f>"INSERT INTO Formateurs (nomFormateur, prenomFormateur) VALUES ("""&amp;B4&amp;""","""&amp;C4&amp;""");"</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">INSERT INTO Formateurs (nomFormateur, prenomFormateur) VALUES ("Butterdroghe","Hervé");</v>
       </c>
     </row>
@@ -2498,14 +3786,14 @@
         <v>52</v>
       </c>
       <c r="D5" t="str">
-        <f>"INSERT INTO Formateurs (nomFormateur, prenomFormateur) VALUES ("""&amp;B5&amp;""","""&amp;C5&amp;""");"</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">INSERT INTO Formateurs (nomFormateur, prenomFormateur) VALUES ("Batzic","Jean Paul");</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2517,7 +3805,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="2" max="2" width="12.421875"/>
     <col bestFit="1" min="3" max="3" width="58.8515625"/>
@@ -2533,7 +3821,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="str">
-        <f>"INSERT INTO Hebergements (libelleHebergement) VALUES ("""&amp;B2&amp;""");"</f>
+        <f t="shared" ref="C2:C3" si="1">"INSERT INTO Hebergements (libelleHebergement) VALUES ("""&amp;B2&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Hebergements (libelleHebergement) VALUES ("AFPA");</v>
       </c>
     </row>
@@ -2542,14 +3830,14 @@
         <v>22</v>
       </c>
       <c r="C3" t="str">
-        <f>"INSERT INTO Hebergements (libelleHebergement) VALUES ("""&amp;B3&amp;""");"</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">INSERT INTO Hebergements (libelleHebergement) VALUES ("AUTRE");</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2561,7 +3849,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="2" max="2" width="12.28125"/>
     <col bestFit="1" min="3" max="3" width="54.00390625"/>
@@ -2577,7 +3865,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="str">
-        <f>"INSERT INTO Groupes (libelleGroupe) VALUES ("""&amp;B2&amp;""");"</f>
+        <f t="shared" ref="C2:C4" si="2">"INSERT INTO Groupes (libelleGroupe) VALUES ("""&amp;B2&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Groupes (libelleGroupe) VALUES ("Informatique");</v>
       </c>
     </row>
@@ -2586,7 +3874,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="str">
-        <f>"INSERT INTO Groupes (libelleGroupe) VALUES ("""&amp;B3&amp;""");"</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">INSERT INTO Groupes (libelleGroupe) VALUES ("Automatisme");</v>
       </c>
     </row>
@@ -2595,14 +3883,14 @@
         <v>37</v>
       </c>
       <c r="C4" t="str">
-        <f>"INSERT INTO Groupes (libelleGroupe) VALUES ("""&amp;B4&amp;""");"</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">INSERT INTO Groupes (libelleGroupe) VALUES ("Reseau");</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2645,11 +3933,11 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <f>VLOOKUP(A8,$A$2:$B$4,2,FALSE)</f>
+        <f t="shared" ref="E2:E3" si="3">VLOOKUP(A8,$A$2:$B$4,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="F2" t="str">
-        <f>"INSERT INTO Formations (libelleFormation, idGroupe) VALUES ("""&amp;D2&amp;""","&amp;E2&amp;");"</f>
+        <f t="shared" ref="F2:F6" si="4">"INSERT INTO Formations (libelleFormation, idGroupe) VALUES ("""&amp;D2&amp;""","&amp;E2&amp;");"</f>
         <v xml:space="preserve">INSERT INTO Formations (libelleFormation, idGroupe) VALUES ("TSAII",2);</v>
       </c>
     </row>
@@ -2664,11 +3952,11 @@
         <v>36</v>
       </c>
       <c r="E3">
-        <f>VLOOKUP(A9,$A$2:$B$4,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F3" t="str">
-        <f>"INSERT INTO Formations (libelleFormation, idGroupe) VALUES ("""&amp;D3&amp;""","&amp;E3&amp;");"</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">INSERT INTO Formations (libelleFormation, idGroupe) VALUES ("TRTE",3);</v>
       </c>
     </row>
@@ -2683,11 +3971,11 @@
         <v>35</v>
       </c>
       <c r="E4">
-        <f>VLOOKUP(A10,$A$2:$B$4,2,FALSE)</f>
+        <f t="shared" ref="E4:E6" si="5">VLOOKUP(A10,$A$2:$B$4,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F4" t="str">
-        <f>"INSERT INTO Formations (libelleFormation, idGroupe) VALUES ("""&amp;D4&amp;""","&amp;E4&amp;");"</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">INSERT INTO Formations (libelleFormation, idGroupe) VALUES ("DWWM",1);</v>
       </c>
     </row>
@@ -2696,11 +3984,11 @@
         <v>53</v>
       </c>
       <c r="E5">
-        <f>VLOOKUP(A11,$A$2:$B$4,2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F5" t="str">
-        <f>"INSERT INTO Formations (libelleFormation, idGroupe) VALUES ("""&amp;D5&amp;""","&amp;E5&amp;");"</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">INSERT INTO Formations (libelleFormation, idGroupe) VALUES ("CDA",1);</v>
       </c>
     </row>
@@ -2709,11 +3997,11 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <f>VLOOKUP(A12,$A$2:$B$4,2,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="F6" t="str">
-        <f>"INSERT INTO Formations (libelleFormation, idGroupe) VALUES ("""&amp;D6&amp;""","&amp;E6&amp;");"</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">INSERT INTO Formations (libelleFormation, idGroupe) VALUES ("TSSR",3);</v>
       </c>
     </row>
@@ -2750,7 +4038,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2762,7 +4050,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="3" max="3" width="49.421875"/>
   </cols>
@@ -2783,7 +4071,7 @@
         <v>29</v>
       </c>
       <c r="C2" t="str">
-        <f>"INSERT INTO Matieres (nomMatiere) VALUES ("""&amp;B2&amp;""");"</f>
+        <f t="shared" ref="C2:C4" si="6">"INSERT INTO Matieres (nomMatiere) VALUES ("""&amp;B2&amp;""");"</f>
         <v xml:space="preserve">INSERT INTO Matieres (nomMatiere) VALUES ("Sport");</v>
       </c>
     </row>
@@ -2795,7 +4083,7 @@
         <v>39</v>
       </c>
       <c r="C3" t="str">
-        <f>"INSERT INTO Matieres (nomMatiere) VALUES ("""&amp;B3&amp;""");"</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">INSERT INTO Matieres (nomMatiere) VALUES ("Français");</v>
       </c>
     </row>
@@ -2807,14 +4095,14 @@
         <v>47</v>
       </c>
       <c r="C4" t="str">
-        <f>"INSERT INTO Matieres (nomMatiere) VALUES ("""&amp;B4&amp;""");"</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">INSERT INTO Matieres (nomMatiere) VALUES ("Math");</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2867,11 +4155,11 @@
         <v>23</v>
       </c>
       <c r="F2">
-        <f>VLOOKUP(B10,$A$2:$B$4,2,FALSE)</f>
+        <f t="shared" ref="F2:F6" si="7">VLOOKUP(B10,$A$2:$B$4,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f>"INSERT INTO constitutions (idMatiere, idFormation) VALUES ("&amp;D2&amp;","&amp;F2&amp;");"</f>
+        <f t="shared" ref="G2:G6" si="8">"INSERT INTO constitutions (idMatiere, idFormation) VALUES ("&amp;F2&amp;","&amp;D2&amp;");"</f>
         <v xml:space="preserve">INSERT INTO constitutions (idMatiere, idFormation) VALUES (1,1);</v>
       </c>
     </row>
@@ -2890,12 +4178,12 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <f>VLOOKUP(B11,$A$2:$B$4,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="G3" t="str">
-        <f>"INSERT INTO constitutions (idMatiere, idFormation) VALUES ("&amp;D3&amp;","&amp;F3&amp;");"</f>
-        <v xml:space="preserve">INSERT INTO constitutions (idMatiere, idFormation) VALUES (2,3);</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">INSERT INTO constitutions (idMatiere, idFormation) VALUES (3,2);</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -2913,12 +4201,12 @@
         <v>35</v>
       </c>
       <c r="F4">
-        <f>VLOOKUP(B12,$A$2:$B$4,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G4" t="str">
-        <f>"INSERT INTO constitutions (idMatiere, idFormation) VALUES ("&amp;D4&amp;","&amp;F4&amp;");"</f>
-        <v xml:space="preserve">INSERT INTO constitutions (idMatiere, idFormation) VALUES (3,2);</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">INSERT INTO constitutions (idMatiere, idFormation) VALUES (2,3);</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -2929,12 +4217,12 @@
         <v>53</v>
       </c>
       <c r="F5">
-        <f>VLOOKUP(B13,$A$2:$B$4,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G5" t="str">
-        <f>"INSERT INTO constitutions (idMatiere, idFormation) VALUES ("&amp;D5&amp;","&amp;F5&amp;");"</f>
-        <v xml:space="preserve">INSERT INTO constitutions (idMatiere, idFormation) VALUES (4,2);</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">INSERT INTO constitutions (idMatiere, idFormation) VALUES (2,4);</v>
       </c>
     </row>
     <row r="6" ht="14.25">
@@ -2945,12 +4233,12 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <f>VLOOKUP(B14,$A$2:$B$4,2,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="G6" t="str">
-        <f>"INSERT INTO constitutions (idMatiere, idFormation) VALUES ("&amp;D6&amp;","&amp;F6&amp;");"</f>
-        <v xml:space="preserve">INSERT INTO constitutions (idMatiere, idFormation) VALUES (5,3);</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">INSERT INTO constitutions (idMatiere, idFormation) VALUES (3,5);</v>
       </c>
     </row>
     <row r="9" ht="14.25">
@@ -3004,7 +4292,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3016,117 +4304,1636 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="1" max="1" width="11.421875"/>
     <col bestFit="1" min="2" max="2" width="12.28125"/>
+    <col bestFit="1" min="3" max="3" width="11.421875"/>
+    <col bestFit="1" min="5" max="6" width="11.28125"/>
+    <col min="7" max="7" width="11.28125"/>
+    <col bestFit="1" min="8" max="8" width="9.8515625"/>
+    <col bestFit="1" min="9" max="9" width="57.28125"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" ht="14.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="14">
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2">
+        <f t="shared" ref="E2:E9" si="9">VLOOKUP(F2,$A$8:$B$12,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6">
+        <f t="shared" ref="G2:G9" si="10">VLOOKUP(H2,$B$2:$C$5,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I9" si="11">"INSERT INTO animations (idFormateur, idFormation) VALUES ("&amp;G2&amp;", "&amp;E2&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO animations (idFormateur, idFormation) VALUES (2, 5);</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="14">
+      <c r="I3" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">INSERT INTO animations (idFormateur, idFormation) VALUES (1, 3);</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="F4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="14">
+      <c r="I4" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">INSERT INTO animations (idFormateur, idFormation) VALUES (2, 2);</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">INSERT INTO animations (idFormateur, idFormation) VALUES (4, 5);</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="E6">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">INSERT INTO animations (idFormateur, idFormation) VALUES (1, 4);</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="H7" s="15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="14">
+      <c r="I7" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">INSERT INTO animations (idFormateur, idFormation) VALUES (3, 1);</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="E8">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
+      <c r="I8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">INSERT INTO animations (idFormateur, idFormation) VALUES (4, 3);</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="12"/>
+      <c r="E9">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10">
+      <c r="G9" s="6">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">INSERT INTO animations (idFormateur, idFormation) VALUES (4, 2);</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="12">
         <v>3</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
+      <c r="C10" s="12"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="12">
         <v>4</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
+      <c r="C11" s="12"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="12">
         <v>5</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="C12" s="12"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="G19" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView topLeftCell="R1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="12.28125"/>
+    <col bestFit="1" min="2" max="2" width="15.140625"/>
+    <col bestFit="1" min="3" max="3" width="20.7109375"/>
+    <col bestFit="1" min="4" max="4" width="10.140625"/>
+    <col bestFit="1" min="5" max="5" width="10.28125"/>
+    <col bestFit="1" min="6" max="6" width="10.421875"/>
+    <col bestFit="1" min="7" max="7" width="10.8515625"/>
+    <col bestFit="1" min="8" max="8" width="4.57421875"/>
+    <col bestFit="1" min="9" max="9" width="13.28125"/>
+    <col min="10" max="10" width="13.28125"/>
+    <col bestFit="1" min="11" max="11" width="9.8515625"/>
+    <col bestFit="1" min="12" max="12" width="11.57421875"/>
+    <col bestFit="1" min="13" max="13" width="9.8515625"/>
+    <col bestFit="1" min="14" max="14" width="14.140625"/>
+    <col bestFit="1" min="15" max="15" width="12.421875"/>
+    <col bestFit="1" min="16" max="16" width="16.421875"/>
+    <col bestFit="1" min="17" max="17" width="19.57421875"/>
+    <col bestFit="1" min="18" max="18" width="255"/>
+    <col bestFit="1" min="19" max="19" width="11.421875"/>
+    <col bestFit="1" min="20" max="20" width="12.28125"/>
+    <col bestFit="1" min="21" max="21" width="11.421875"/>
+    <col customWidth="1" min="22" max="22" width="4.00390625"/>
+    <col bestFit="1" min="23" max="24" width="11.28125"/>
+    <col customWidth="1" min="25" max="25" width="3.7109375"/>
+    <col bestFit="1" min="26" max="26" width="12.421875"/>
+    <col bestFit="1" min="27" max="27" width="14.00390625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="19"/>
+      <c r="U1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6">
+        <v>62100</v>
+      </c>
+      <c r="F2" s="6">
+        <v>21345678</v>
+      </c>
+      <c r="G2" s="22">
+        <v>41883</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="22">
+        <v>34713</v>
+      </c>
+      <c r="J2" s="6">
+        <f t="shared" ref="J2:J9" si="12">VLOOKUP(K2,$W$2:$X$6,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="6">
+        <f t="shared" ref="L2:L9" si="13">VLOOKUP(M2,$T$2:$U$5,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="6">
+        <f t="shared" ref="N2:N9" si="14">VLOOKUP(O2,$Z$2:$AA$3,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="17" t="str">
+        <f>TEXT(G2,"aaaa-mm-jj")</f>
+        <v>-09-jj</v>
+      </c>
+      <c r="Q2" s="17" t="str">
+        <f>TEXT(I2,"aaaa-mm-jj")</f>
+        <v>-01-jj</v>
+      </c>
+      <c r="R2" t="str">
+        <f>"INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("""&amp;A2&amp;""","""&amp;B2&amp;""","""&amp;C2&amp;""","""&amp;D2&amp;""","&amp;E2&amp;","""&amp;F2&amp;""","""&amp;P2&amp;""","""&amp;H2&amp;""","""&amp;Q2&amp;""","&amp;J2&amp;","&amp;N2&amp;","&amp;L2&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("roblin","lea","12,bd de la liberte","calais",62100,"21345678","-09-jj","F","-01-jj",5,2,2);</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="24">
+        <v>1</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8">
+        <v>62100</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="15">
+        <v>34436</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="str">
+        <f>TEXT(G3,"aaaa-mm-jj")</f>
+        <v>-09-jj</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>TEXT(I3,"aaaa-mm-jj")</f>
+        <v>-04-jj</v>
+      </c>
+      <c r="R3" t="str">
+        <f>"INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("""&amp;A3&amp;""","""&amp;B3&amp;""","""&amp;C3&amp;""","""&amp;D3&amp;""","&amp;E3&amp;","""&amp;F3&amp;""","""&amp;P3&amp;""","""&amp;H3&amp;""","""&amp;Q3&amp;""","&amp;J3&amp;","&amp;N3&amp;","&amp;L3&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("macarthur","leon","121,bd gambetta","calais",62100,"21-30-65-09","-09-jj","M","-04-jj",3,2,1);</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="24">
+        <v>2</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="24">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="8">
+        <v>62200</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="15">
+        <v>35501</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" t="str">
+        <f>TEXT(G4,"aaaa-mm-jj")</f>
+        <v>-09-jj</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>TEXT(I4,"aaaa-mm-jj")</f>
+        <v>-03-jj</v>
+      </c>
+      <c r="R4" t="str">
+        <f>"INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("""&amp;A4&amp;""","""&amp;B4&amp;""","""&amp;C4&amp;""","""&amp;D4&amp;""","&amp;E4&amp;","""&amp;F4&amp;""","""&amp;P4&amp;""","""&amp;H4&amp;""","""&amp;Q4&amp;""","&amp;J4&amp;","&amp;N4&amp;","&amp;L4&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("minol","luc","9,rue des prairies","boulogne",62200,"21-30-20-10","-09-jj","M","-03-jj",2,2,2);</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="24">
+        <v>3</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="24">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="12"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="8">
+        <v>62930</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="15">
+        <v>35145</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" t="str">
+        <f>TEXT(G5,"aaaa-mm-jj")</f>
+        <v>-09-jj</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>TEXT(I5,"aaaa-mm-jj")</f>
+        <v>-03-jj</v>
+      </c>
+      <c r="R5" t="str">
+        <f>"INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("""&amp;A5&amp;""","""&amp;B5&amp;""","""&amp;C5&amp;""","""&amp;D5&amp;""","&amp;E5&amp;","""&amp;F5&amp;""","""&amp;P5&amp;""","""&amp;H5&amp;""","""&amp;Q5&amp;""","&amp;J5&amp;","&amp;N5&amp;","&amp;L5&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("minol","sophie","12,rue des capucines","wimereux",62930,"21-89-04-30","-09-jj","F","-03-jj",5,2,4);</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" s="24">
+        <v>4</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" s="24">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="12"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="8">
+        <v>62300</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="15">
+        <v>34005</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" t="str">
+        <f>TEXT(G6,"aaaa-mm-jj")</f>
+        <v>-09-jj</v>
+      </c>
+      <c r="Q6" t="str">
+        <f>TEXT(I6,"aaaa-mm-jj")</f>
+        <v>-02-jj</v>
+      </c>
+      <c r="R6" t="str">
+        <f>"INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("""&amp;A6&amp;""","""&amp;B6&amp;""","""&amp;C6&amp;""","""&amp;D6&amp;""","&amp;E6&amp;","""&amp;F6&amp;""","""&amp;P6&amp;""","""&amp;H6&amp;""","""&amp;Q6&amp;""","&amp;J6&amp;","&amp;N6&amp;","&amp;L6&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("minol","marc","67,allee ronde","marcq",62300,"21-90-87-65","-09-jj","M","-02-jj",3,2,1);</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" s="24">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="12"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8">
+        <v>62100</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="15">
+        <v>41518</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="15">
+        <v>35085</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" t="str">
+        <f>TEXT(G7,"aaaa-mm-jj")</f>
+        <v>-09-jj</v>
+      </c>
+      <c r="Q7" t="str">
+        <f>TEXT(I7,"aaaa-mm-jj")</f>
+        <v>-01-jj</v>
+      </c>
+      <c r="R7" t="str">
+        <f>"INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("""&amp;A7&amp;""","""&amp;B7&amp;""","""&amp;C7&amp;""","""&amp;D7&amp;""","&amp;E7&amp;","""&amp;F7&amp;""","""&amp;P7&amp;""","""&amp;H7&amp;""","""&amp;Q7&amp;""","&amp;J7&amp;","&amp;N7&amp;","&amp;L7&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("vendraux","marc","5,rue de marseille","calais",62100,"21-96-00-09","-09-jj","M","-01-jj",4,2,1);</v>
+      </c>
+      <c r="S7" s="17"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8">
+        <v>62200</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="15">
+        <v>34788</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" t="str">
+        <f>TEXT(G8,"aaaa-mm-jj")</f>
+        <v>-09-jj</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>TEXT(I8,"aaaa-mm-jj")</f>
+        <v>-03-jj</v>
+      </c>
+      <c r="R8" t="str">
+        <f>"INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("""&amp;A8&amp;""","""&amp;B8&amp;""","""&amp;C8&amp;""","""&amp;D8&amp;""","&amp;E8&amp;","""&amp;F8&amp;""","""&amp;P8&amp;""","""&amp;H8&amp;""","""&amp;Q8&amp;""","&amp;J8&amp;","&amp;N8&amp;","&amp;L8&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("vendermaele","helene","456,rue de paris","boulogne",62200,"21-45-45-60","-09-jj","F","-03-jj",5,2,2);</v>
+      </c>
+      <c r="S8" s="12"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="8">
+        <v>59300</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="15">
+        <v>34475</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" t="str">
+        <f>TEXT(G9,"aaaa-mm-jj")</f>
+        <v>-09-jj</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>TEXT(I9,"aaaa-mm-jj")</f>
+        <v>-05-jj</v>
+      </c>
+      <c r="R9" t="str">
+        <f>"INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("""&amp;A9&amp;""","""&amp;B9&amp;""","""&amp;C9&amp;""","""&amp;D9&amp;""","&amp;E9&amp;","""&amp;F9&amp;""","""&amp;P9&amp;""","""&amp;H9&amp;""","""&amp;Q9&amp;""","&amp;J9&amp;","&amp;N9&amp;","&amp;L9&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("besson","loic","3,allee carpentier","dunkerque",59300,"28-90-89-78","-09-jj","M","-05-jj",1,1,3);</v>
+      </c>
+      <c r="S9" s="12"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="8">
+        <v>59870</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="15">
+        <v>41518</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="15">
+        <v>33981</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" ref="J10:J19" si="15">VLOOKUP(K10,$W$2:$X$6,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" ref="L10:L19" si="16">VLOOKUP(M10,$T$2:$U$5,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" ref="N10:N19" si="17">VLOOKUP(O10,$Z$2:$AA$3,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" t="str">
+        <f>TEXT(G10,"aaaa-mm-jj")</f>
+        <v>-09-jj</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>TEXT(I10,"aaaa-mm-jj")</f>
+        <v>-01-jj</v>
+      </c>
+      <c r="R10" t="str">
+        <f>"INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("""&amp;A10&amp;""","""&amp;B10&amp;""","""&amp;C10&amp;""","""&amp;D10&amp;""","&amp;E10&amp;","""&amp;F10&amp;""","""&amp;P10&amp;""","""&amp;H10&amp;""","""&amp;Q10&amp;""","&amp;J10&amp;","&amp;N10&amp;","&amp;L10&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("godart","jean-paul","123,rue de lens","marck",59870,"28-09-87-65","-09-jj","M","-01-jj",1,1,3);</v>
+      </c>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="8">
+        <v>59100</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="15">
+        <v>35167</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" t="str">
+        <f>TEXT(G11,"aaaa-mm-jj")</f>
+        <v>-09-jj</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>TEXT(I11,"aaaa-mm-jj")</f>
+        <v>-04-jj</v>
+      </c>
+      <c r="R11" t="str">
+        <f>"INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("""&amp;A11&amp;""","""&amp;B11&amp;""","""&amp;C11&amp;""","""&amp;D11&amp;""","&amp;E11&amp;","""&amp;F11&amp;""","""&amp;P11&amp;""","""&amp;H11&amp;""","""&amp;Q11&amp;""","&amp;J11&amp;","&amp;N11&amp;","&amp;L11&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("beaux","marie","1,allee des cygnes","dunkerque",59100,"21-30-87-90","-09-jj","F","-04-jj",2,2,2);</v>
+      </c>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="8">
+        <v>62200</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="15">
+        <v>35263</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" t="str">
+        <f>TEXT(G12,"aaaa-mm-jj")</f>
+        <v>-09-jj</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>TEXT(I12,"aaaa-mm-jj")</f>
+        <v>-07-jj</v>
+      </c>
+      <c r="R12" t="str">
+        <f>"INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("""&amp;A12&amp;""","""&amp;B12&amp;""","""&amp;C12&amp;""","""&amp;D12&amp;""","&amp;E12&amp;","""&amp;F12&amp;""","""&amp;P12&amp;""","""&amp;H12&amp;""","""&amp;Q12&amp;""","&amp;J12&amp;","&amp;N12&amp;","&amp;L12&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("turini","elsa","12,route de paris","boulogne",62200,"21-32-47-97","-09-jj","F","-07-jj",1,2,3);</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="8">
+        <v>62200</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="15">
+        <v>35536</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" t="str">
+        <f>TEXT(G13,"aaaa-mm-jj")</f>
+        <v>-09-jj</v>
+      </c>
+      <c r="Q13" t="str">
+        <f>TEXT(I13,"aaaa-mm-jj")</f>
+        <v>-04-jj</v>
+      </c>
+      <c r="R13" t="str">
+        <f>"INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("""&amp;A13&amp;""","""&amp;B13&amp;""","""&amp;C13&amp;""","""&amp;D13&amp;""","&amp;E13&amp;","""&amp;F13&amp;""","""&amp;P13&amp;""","""&amp;H13&amp;""","""&amp;Q13&amp;""","&amp;J13&amp;","&amp;N13&amp;","&amp;L13&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("torelle","elise","123,vallee du denacre","boulogne",62200,"21-67-86-90","-09-jj","F","-04-jj",3,1,1);</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="8">
+        <v>62100</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="15">
+        <v>35142</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" t="str">
+        <f>TEXT(G14,"aaaa-mm-jj")</f>
+        <v>-09-jj</v>
+      </c>
+      <c r="Q14" t="str">
+        <f>TEXT(I14,"aaaa-mm-jj")</f>
+        <v>-03-jj</v>
+      </c>
+      <c r="R14" t="str">
+        <f>"INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("""&amp;A14&amp;""","""&amp;B14&amp;""","""&amp;C14&amp;""","""&amp;D14&amp;""","&amp;E14&amp;","""&amp;F14&amp;""","""&amp;P14&amp;""","""&amp;H14&amp;""","""&amp;Q14&amp;""","&amp;J14&amp;","&amp;N14&amp;","&amp;L14&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("pharis","pierre","12,avenue foch","calais",62100,"21-21-85-90","-09-jj","M","-03-jj",4,1,1);</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="8">
+        <v>62100</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="15">
+        <v>34720</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" t="str">
+        <f>TEXT(G15,"aaaa-mm-jj")</f>
+        <v>-09-jj</v>
+      </c>
+      <c r="Q15" t="str">
+        <f>TEXT(I15,"aaaa-mm-jj")</f>
+        <v>-01-jj</v>
+      </c>
+      <c r="R15" t="str">
+        <f>"INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("""&amp;A15&amp;""","""&amp;B15&amp;""","""&amp;C15&amp;""","""&amp;D15&amp;""","&amp;E15&amp;","""&amp;F15&amp;""","""&amp;P15&amp;""","""&amp;H15&amp;""","""&amp;Q15&amp;""","&amp;J15&amp;","&amp;N15&amp;","&amp;L15&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("ephyre","luc","12,rue de lyon","calais",62100,"21-35-32-90","-09-jj","M","-01-jj",3,1,4);</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="8">
+        <v>62200</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="15">
+        <v>34473</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" t="str">
+        <f>TEXT(G16,"aaaa-mm-jj")</f>
+        <v>-09-jj</v>
+      </c>
+      <c r="Q16" t="str">
+        <f>TEXT(I16,"aaaa-mm-jj")</f>
+        <v>-05-jj</v>
+      </c>
+      <c r="R16" t="str">
+        <f>"INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("""&amp;A16&amp;""","""&amp;B16&amp;""","""&amp;C16&amp;""","""&amp;D16&amp;""","&amp;E16&amp;","""&amp;F16&amp;""","""&amp;P16&amp;""","""&amp;H16&amp;""","""&amp;Q16&amp;""","&amp;J16&amp;","&amp;N16&amp;","&amp;L16&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("leclercq","jules","12,allee des ravins","boulogne",62200,"21-36-71-92","-09-jj","M","-05-jj",3,2,1);</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="8">
+        <v>62200</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="15">
+        <v>35371</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" t="str">
+        <f>TEXT(G17,"aaaa-mm-jj")</f>
+        <v>-09-jj</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>TEXT(I17,"aaaa-mm-jj")</f>
+        <v>-11-jj</v>
+      </c>
+      <c r="R17" t="str">
+        <f>"INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("""&amp;A17&amp;""","""&amp;B17&amp;""","""&amp;C17&amp;""","""&amp;D17&amp;""","&amp;E17&amp;","""&amp;F17&amp;""","""&amp;P17&amp;""","""&amp;H17&amp;""","""&amp;Q17&amp;""","&amp;J17&amp;","&amp;N17&amp;","&amp;L17&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("dupont","luc","21,avenue monsigny","calais",62200,"21-21-34-99","-09-jj","M","-11-jj",2,2,2);</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="8">
+        <v>62930</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="15">
+        <v>35381</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" t="str">
+        <f>TEXT(G18,"aaaa-mm-jj")</f>
+        <v>-09-jj</v>
+      </c>
+      <c r="Q18" t="str">
+        <f>TEXT(I18,"aaaa-mm-jj")</f>
+        <v>-11-jj</v>
+      </c>
+      <c r="R18" t="str">
+        <f>"INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("""&amp;A18&amp;""","""&amp;B18&amp;""","""&amp;C18&amp;""","""&amp;D18&amp;""","&amp;E18&amp;","""&amp;F18&amp;""","""&amp;P18&amp;""","""&amp;H18&amp;""","""&amp;Q18&amp;""","&amp;J18&amp;","&amp;N18&amp;","&amp;L18&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("marke","loic","312,route de paris","wimereux",62930,"21-87-87-71","-09-jj","M","-11-jj",5,1,4);</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="8">
+        <v>59100</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="15">
+        <v>41883</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="15">
+        <v>35523</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" t="str">
+        <f>TEXT(G19,"aaaa-mm-jj")</f>
+        <v>-09-jj</v>
+      </c>
+      <c r="Q19" t="str">
+        <f>TEXT(I19,"aaaa-mm-jj")</f>
+        <v>-04-jj</v>
+      </c>
+      <c r="R19" t="str">
+        <f>"INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("""&amp;A19&amp;""","""&amp;B19&amp;""","""&amp;C19&amp;""","""&amp;D19&amp;""","&amp;E19&amp;","""&amp;F19&amp;""","""&amp;P19&amp;""","""&amp;H19&amp;""","""&amp;Q19&amp;""","&amp;J19&amp;","&amp;N19&amp;","&amp;L19&amp;");"</f>
+        <v xml:space="preserve">INSERT INTO Stagiaires (nomStagiaire, prenomStagiaire, adresseStagiaire, ville, codePostal, telStagiaire, dateEntree, genreStagiaire, dateNaissance, idFormation, idHebergement, idFormateur) VALUES ("dewa","leon","121,allee des eglantines","dunkerque",59100,"28-30-87-90","-09-jj","M","-04-jj",2,1,4);</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>